--- a/TestData/NPW_SmokePack_TestData.xlsx
+++ b/TestData/NPW_SmokePack_TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>https://www.uaptanzania.co.tz/</t>
+  </si>
+  <si>
+    <t>BrokenLinks</t>
   </si>
 </sst>
 </file>
@@ -378,83 +381,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
